--- a/data/TC002_CreateLead.xlsx
+++ b/data/TC002_CreateLead.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2BFE6BB-D900-40E6-A27B-3368F0024E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamun\git\POMFramework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1DFC66-A248-4BA3-B0EE-5B557F5F2BD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>TCS</t>
   </si>
@@ -228,6 +232,30 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Malini</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -575,15 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC7DB3-BF07-46EA-B33E-8C4BB8A457E7}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
     <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
@@ -728,7 +757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,6 +867,119 @@
         <v>55</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -845,8 +987,10 @@
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1" xr:uid="{2882838F-A60B-42F7-B687-D632CFB1F09D}"/>
     <hyperlink ref="AK2" r:id="rId2" xr:uid="{7E61AB28-03F3-4E27-AC22-7AA37FA733A2}"/>
+    <hyperlink ref="Z3" r:id="rId3" xr:uid="{D70594F7-96C1-461F-9895-5F1B1D86EFD2}"/>
+    <hyperlink ref="AK3" r:id="rId4" xr:uid="{72837AF6-7500-4C55-888E-B396C95188CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>